--- a/WorkBot/main/backend/orders/OrderFiles/Performance Food/Performance Food _ COLLEGETOWN 02242024.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Performance Food/Performance Food _ COLLEGETOWN 02242024.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,7 +742,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -752,25 +752,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>$77.04</t>
+          <t>$51.36</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WB286</t>
+          <t>WB406</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Natalie's - Orange Mango
+          <t>Natalie's - Orange Pineapple
 Beverage - Bottle</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -780,117 +780,89 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>$27.78</t>
+          <t>$13.89</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WB406</t>
+          <t>WB288</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Natalie's - Orange Pineapple
+          <t>Natalie's - Honey Tangarine
 Beverage - Bottle</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>$13.89</t>
+          <t>$14.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>$41.67</t>
+          <t>$28.02</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>WB288</t>
+          <t>CG502</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Natalie's - Honey Tangarine
+          <t>Spindrift - Lime
 Beverage - Bottle</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>$14.01</t>
+          <t>$23.49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>$28.02</t>
+          <t>$23.49</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CG502</t>
+          <t>ED258</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>Spindrift - Lime
-Beverage - Bottle</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$23.49</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$23.49</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ED258</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
         <is>
           <t>Spindrift - Lemon
 Beverage - Bottle</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$23.49</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>$23.49</t>
         </is>
